--- a/FASE_2/EVIDENCIAS_PROYECTO/PárvuloConnect - Historias de Usuario.xlsx
+++ b/FASE_2/EVIDENCIAS_PROYECTO/PárvuloConnect - Historias de Usuario.xlsx
@@ -391,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -420,6 +420,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <sz val="11.0"/>
@@ -475,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -487,6 +488,28 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -551,56 +574,58 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -885,36 +910,40 @@
       <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>1.0</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="60.0" customHeight="1">
-      <c r="G7" s="5">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6">
         <v>2.0</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -931,36 +960,40 @@
       <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>1.0</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" ht="60.0" customHeight="1">
-      <c r="G9" s="5">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6">
         <v>2.0</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -977,36 +1010,40 @@
       <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>1.0</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" ht="57.0" customHeight="1">
-      <c r="G11" s="5">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6">
         <v>2.0</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1023,36 +1060,40 @@
       <c r="F12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>1.0</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" ht="43.5" customHeight="1">
-      <c r="G13" s="5">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6">
         <v>2.0</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1069,36 +1110,40 @@
       <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>1.0</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" ht="56.25" customHeight="1">
-      <c r="G15" s="5">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6">
         <v>2.0</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1112,39 +1157,43 @@
       <c r="E16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <v>1.0</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" ht="56.25" customHeight="1">
-      <c r="G17" s="5">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6">
         <v>2.0</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1158,39 +1207,43 @@
       <c r="E18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <v>1.0</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" ht="51.0" customHeight="1">
-      <c r="G19" s="5">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6">
         <v>2.0</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1204,59 +1257,63 @@
       <c r="E20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="6">
         <v>1.0</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" ht="66.75" customHeight="1">
-      <c r="G21" s="5">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6">
         <v>2.0</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23">
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -2236,6 +2293,40 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2260,88 +2351,88 @@
   </cols>
   <sheetData>
     <row r="5">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6">
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" ht="72.75" customHeight="1">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" ht="80.25" customHeight="1">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="11" ht="72.0" customHeight="1">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" ht="258.0" customHeight="1">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" ht="89.25" customHeight="1">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="14" ht="84.0" customHeight="1">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="18" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" ht="81.0" customHeight="1">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" ht="57.0" customHeight="1">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="18" t="s">
         <v>119</v>
       </c>
     </row>
